--- a/attendance_batch_insert.xlsx
+++ b/attendance_batch_insert.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="82">
   <si>
     <t>员工编号</t>
   </si>
@@ -56,6 +56,210 @@
   </si>
   <si>
     <t>18:07:05'</t>
+  </si>
+  <si>
+    <t>2019-01-02'</t>
+  </si>
+  <si>
+    <t>2019-01-03'</t>
+  </si>
+  <si>
+    <t>2019-01-04'</t>
+  </si>
+  <si>
+    <t>2019-01-07'</t>
+  </si>
+  <si>
+    <t>2019-01-08'</t>
+  </si>
+  <si>
+    <t>2019-01-09'</t>
+  </si>
+  <si>
+    <t>2019-01-10'</t>
+  </si>
+  <si>
+    <t>2019-01-11'</t>
+  </si>
+  <si>
+    <t>2019-01-14'</t>
+  </si>
+  <si>
+    <t>2019-01-15'</t>
+  </si>
+  <si>
+    <t>2019-01-16'</t>
+  </si>
+  <si>
+    <t>2019-01-17'</t>
+  </si>
+  <si>
+    <t>2019-01-18'</t>
+  </si>
+  <si>
+    <t>2019-01-21'</t>
+  </si>
+  <si>
+    <t>2019-01-22'</t>
+  </si>
+  <si>
+    <t>2019-01-23'</t>
+  </si>
+  <si>
+    <t>2019-01-24'</t>
+  </si>
+  <si>
+    <t>2019-01-25'</t>
+  </si>
+  <si>
+    <t>2019-01-28'</t>
+  </si>
+  <si>
+    <t>2019-01-29'</t>
+  </si>
+  <si>
+    <t>2019-01-30'</t>
+  </si>
+  <si>
+    <t>2019-01-31'</t>
+  </si>
+  <si>
+    <t>2019-02-01'</t>
+  </si>
+  <si>
+    <t>2019-02-02'</t>
+  </si>
+  <si>
+    <t>2019-02-03'</t>
+  </si>
+  <si>
+    <t>2019-02-11'</t>
+  </si>
+  <si>
+    <t>2019-02-12'</t>
+  </si>
+  <si>
+    <t>2019-02-13'</t>
+  </si>
+  <si>
+    <t>2019-02-14'</t>
+  </si>
+  <si>
+    <t>2019-02-15'</t>
+  </si>
+  <si>
+    <t>2019-02-18'</t>
+  </si>
+  <si>
+    <t>2019-02-20'</t>
+  </si>
+  <si>
+    <t>2019-02-21'</t>
+  </si>
+  <si>
+    <t>2019-02-22'</t>
+  </si>
+  <si>
+    <t>2019-02-25'</t>
+  </si>
+  <si>
+    <t>2019-02-26'</t>
+  </si>
+  <si>
+    <t>2019-02-27'</t>
+  </si>
+  <si>
+    <t>2019-02-28'</t>
+  </si>
+  <si>
+    <t>2019-03-01'</t>
+  </si>
+  <si>
+    <t>2019-03-04'</t>
+  </si>
+  <si>
+    <t>2019-03-05'</t>
+  </si>
+  <si>
+    <t>2019-03-06'</t>
+  </si>
+  <si>
+    <t>2019-03-07'</t>
+  </si>
+  <si>
+    <t>2019-03-08'</t>
+  </si>
+  <si>
+    <t>2019-03-11'</t>
+  </si>
+  <si>
+    <t>2019-03-12'</t>
+  </si>
+  <si>
+    <t>2019-03-13'</t>
+  </si>
+  <si>
+    <t>2019-03-14'</t>
+  </si>
+  <si>
+    <t>2019-03-15'</t>
+  </si>
+  <si>
+    <t>2019-03-18'</t>
+  </si>
+  <si>
+    <t>2019-03-19'</t>
+  </si>
+  <si>
+    <t>2019-03-20'</t>
+  </si>
+  <si>
+    <t>2019-03-21'</t>
+  </si>
+  <si>
+    <t>2019-03-22'</t>
+  </si>
+  <si>
+    <t>2019-03-25'</t>
+  </si>
+  <si>
+    <t>2019-03-26'</t>
+  </si>
+  <si>
+    <t>2019-03-27'</t>
+  </si>
+  <si>
+    <t>2019-03-28'</t>
+  </si>
+  <si>
+    <t>2019-03-29'</t>
+  </si>
+  <si>
+    <t>2019-04-01'</t>
+  </si>
+  <si>
+    <t>2019-04-02'</t>
+  </si>
+  <si>
+    <t>2019-04-03'</t>
+  </si>
+  <si>
+    <t>2019-04-04'</t>
+  </si>
+  <si>
+    <t>2019-04-08'</t>
+  </si>
+  <si>
+    <t>2019-04-09'</t>
+  </si>
+  <si>
+    <t>2019-04-10'</t>
+  </si>
+  <si>
+    <t>2019-04-11'</t>
+  </si>
+  <si>
+    <t>2019-04-12'</t>
   </si>
 </sst>
 </file>
@@ -63,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,9 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,6 +291,58 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,8 +356,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,77 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,8 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +440,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,6 +482,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,19 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,109 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +625,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,81 +721,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +745,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,13 +1207,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -1086,6 +1290,2457 @@
         <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-14','08:55:00','18:07:05',2,0,0,8,1,0);</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A5,",'",B5,",'",C5,",'",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-02','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A6,",'",B6,",'",C6,",'",D6,",",E6,",",F6,",",G6,",",H6,",",I6,",",J6,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-03','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A7,",'",B7,",'",C7,",'",D7,",",E7,",",F7,",",G7,",",H7,",",I7,",",J7,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-04','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A8,",'",B8,",'",C8,",'",D8,",",E8,",",F8,",",G8,",",H8,",",I8,",",J8,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-07','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A9,",'",B9,",'",C9,",'",D9,",",E9,",",F9,",",G9,",",H9,",",I9,",",J9,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-08','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A10,",'",B10,",'",C10,",'",D10,",",E10,",",F10,",",G10,",",H10,",",I10,",",J10,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-09','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A11,",'",B11,",'",C11,",'",D11,",",E11,",",F11,",",G11,",",H11,",",I11,",",J11,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-10','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A12,",'",B12,",'",C12,",'",D12,",",E12,",",F12,",",G12,",",H12,",",I12,",",J12,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-11','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A13,",'",B13,",'",C13,",'",D13,",",E13,",",F13,",",G13,",",H13,",",I13,",",J13,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-14','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A14,",'",B14,",'",C14,",'",D14,",",E14,",",F14,",",G14,",",H14,",",I14,",",J14,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-15','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A15,",'",B15,",'",C15,",'",D15,",",E15,",",F15,",",G15,",",H15,",",I15,",",J15,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-16','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A16,",'",B16,",'",C16,",'",D16,",",E16,",",F16,",",G16,",",H16,",",I16,",",J16,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-17','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A17,",'",B17,",'",C17,",'",D17,",",E17,",",F17,",",G17,",",H17,",",I17,",",J17,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-18','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A18,",'",B18,",'",C18,",'",D18,",",E18,",",F18,",",G18,",",H18,",",I18,",",J18,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-21','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A19,",'",B19,",'",C19,",'",D19,",",E19,",",F19,",",G19,",",H19,",",I19,",",J19,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-22','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A20,",'",B20,",'",C20,",'",D20,",",E20,",",F20,",",G20,",",H20,",",I20,",",J20,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-23','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A21,",'",B21,",'",C21,",'",D21,",",E21,",",F21,",",G21,",",H21,",",I21,",",J21,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-24','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A22,",'",B22,",'",C22,",'",D22,",",E22,",",F22,",",G22,",",H22,",",I22,",",J22,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-25','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A23,",'",B23,",'",C23,",'",D23,",",E23,",",F23,",",G23,",",H23,",",I23,",",J23,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-28','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A24,",'",B24,",'",C24,",'",D24,",",E24,",",F24,",",G24,",",H24,",",I24,",",J24,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-29','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A25,",'",B25,",'",C25,",'",D25,",",E25,",",F25,",",G25,",",H25,",",I25,",",J25,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-30','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A26,",'",B26,",'",C26,",'",D26,",",E26,",",F26,",",G26,",",H26,",",I26,",",J26,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-01-31','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A27,",'",B27,",'",C27,",'",D27,",",E27,",",F27,",",G27,",",H27,",",I27,",",J27,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-01','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A28,",'",B28,",'",C28,",'",D28,",",E28,",",F28,",",G28,",",H28,",",I28,",",J28,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-02','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A29,",'",B29,",'",C29,",'",D29,",",E29,",",F29,",",G29,",",H29,",",I29,",",J29,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-03','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A30,",'",B30,",'",C30,",'",D30,",",E30,",",F30,",",G30,",",H30,",",I30,",",J30,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-11','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A31,",'",B31,",'",C31,",'",D31,",",E31,",",F31,",",G31,",",H31,",",I31,",",J31,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-12','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A32,",'",B32,",'",C32,",'",D32,",",E32,",",F32,",",G32,",",H32,",",I32,",",J32,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-13','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A33,",'",B33,",'",C33,",'",D33,",",E33,",",F33,",",G33,",",H33,",",I33,",",J33,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-14','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A34,",'",B34,",'",C34,",'",D34,",",E34,",",F34,",",G34,",",H34,",",I34,",",J34,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-15','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A35,",'",B35,",'",C35,",'",D35,",",E35,",",F35,",",G35,",",H35,",",I35,",",J35,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-18','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A36,",'",B36,",'",C36,",'",D36,",",E36,",",F36,",",G36,",",H36,",",I36,",",J36,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-20','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A37,",'",B37,",'",C37,",'",D37,",",E37,",",F37,",",G37,",",H37,",",I37,",",J37,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-21','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A38,",'",B38,",'",C38,",'",D38,",",E38,",",F38,",",G38,",",H38,",",I38,",",J38,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-22','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A39,",'",B39,",'",C39,",'",D39,",",E39,",",F39,",",G39,",",H39,",",I39,",",J39,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-25','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A40,",'",B40,",'",C40,",'",D40,",",E40,",",F40,",",G40,",",H40,",",I40,",",J40,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-26','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A41,",'",B41,",'",C41,",'",D41,",",E41,",",F41,",",G41,",",H41,",",I41,",",J41,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-27','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A42,",'",B42,",'",C42,",'",D42,",",E42,",",F42,",",G42,",",H42,",",I42,",",J42,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-02-28','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A43,",'",B43,",'",C43,",'",D43,",",E43,",",F43,",",G43,",",H43,",",I43,",",J43,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-01','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A44,",'",B44,",'",C44,",'",D44,",",E44,",",F44,",",G44,",",H44,",",I44,",",J44,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-04','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A45,",'",B45,",'",C45,",'",D45,",",E45,",",F45,",",G45,",",H45,",",I45,",",J45,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-05','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A46,",'",B46,",'",C46,",'",D46,",",E46,",",F46,",",G46,",",H46,",",I46,",",J46,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-06','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A47,",'",B47,",'",C47,",'",D47,",",E47,",",F47,",",G47,",",H47,",",I47,",",J47,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-07','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A48,",'",B48,",'",C48,",'",D48,",",E48,",",F48,",",G48,",",H48,",",I48,",",J48,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-08','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A49,",'",B49,",'",C49,",'",D49,",",E49,",",F49,",",G49,",",H49,",",I49,",",J49,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-11','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A50,",'",B50,",'",C50,",'",D50,",",E50,",",F50,",",G50,",",H50,",",I50,",",J50,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-12','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A51,",'",B51,",'",C51,",'",D51,",",E51,",",F51,",",G51,",",H51,",",I51,",",J51,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-13','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A52,",'",B52,",'",C52,",'",D52,",",E52,",",F52,",",G52,",",H52,",",I52,",",J52,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-14','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A53,",'",B53,",'",C53,",'",D53,",",E53,",",F53,",",G53,",",H53,",",I53,",",J53,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-15','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A54,",'",B54,",'",C54,",'",D54,",",E54,",",F54,",",G54,",",H54,",",I54,",",J54,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-18','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A55,",'",B55,",'",C55,",'",D55,",",E55,",",F55,",",G55,",",H55,",",I55,",",J55,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-19','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A56,",'",B56,",'",C56,",'",D56,",",E56,",",F56,",",G56,",",H56,",",I56,",",J56,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-20','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A57,",'",B57,",'",C57,",'",D57,",",E57,",",F57,",",G57,",",H57,",",I57,",",J57,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-21','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A58,",'",B58,",'",C58,",'",D58,",",E58,",",F58,",",G58,",",H58,",",I58,",",J58,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-22','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>8</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A59,",'",B59,",'",C59,",'",D59,",",E59,",",F59,",",G59,",",H59,",",I59,",",J59,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-25','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A60,",'",B60,",'",C60,",'",D60,",",E60,",",F60,",",G60,",",H60,",",I60,",",J60,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-26','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A61,",'",B61,",'",C61,",'",D61,",",E61,",",F61,",",G61,",",H61,",",I61,",",J61,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-27','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A62,",'",B62,",'",C62,",'",D62,",",E62,",",F62,",",G62,",",H62,",",I62,",",J62,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-28','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A63,",'",B63,",'",C63,",'",D63,",",E63,",",F63,",",G63,",",H63,",",I63,",",J63,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-03-29','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A64,",'",B64,",'",C64,",'",D64,",",E64,",",F64,",",G64,",",H64,",",I64,",",J64,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-01','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="str">
+        <f>CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A65,",'",B65,",'",C65,",'",D65,",",E65,",",F65,",",G65,",",H65,",",I65,",",J65,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-02','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>8</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L72" si="0">CONCATENATE("INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('",A66,",'",B66,",'",C66,",'",D66,",",E66,",",F66,",",G66,",",H66,",",I66,",",J66,");")</f>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-03','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-04','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-08','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-09','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-10','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-11','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>8</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO emp_attendance(EMP_NUMBER, ATTENDANCE_DATE, SIGN_IN, SIGN_OUT, COUNT, LATE, `LEFT`, WORK_TIME, STATUS, COUNT_LATE) VALUES('SKY0010','2019-04-12','08:55:00','18:07:05',2,0,0,8,1,0);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
